--- a/biology/Botanique/Pois_(plante)/Pois_(plante).xlsx
+++ b/biology/Botanique/Pois_(plante)/Pois_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pois est un nom vernaculaire donné en français à des plantes ou des légumes de la famille des Fabaceae, du genre Pisum, plus particulièrement de l'espèce Pisum sativum, appelée « petit pois » ou simplement « pois ». On trouve également dans cette espèce les pois mangetout, les pois fourragers ainsi que les pois sauvages.
@@ -513,91 +525,93 @@
           <t>Liste d'espèces appelées « pois » en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : certains noms peuvent correspondre à une même espèce et inversement.
 Petit pois - Pisum sativum
 Pois - genre Pisum
 Pois - Pisum sativum
 Pois - Phaseolus vulgaris, nom des dialectes de l'Ouest de la France, passé au Québec, où « pois au lard » est un mets de haricots
-pois à bouquet  - Lathyrus latifolius[1]
-pois à crapaud - Vicia  cracca L.[1]
-pois à écosser - Pisum  sativum[1]
-pois à grain ridé - Pisum  sativumsubsp. sativum convar. medullare[1]
-pois à gratter - Mucuna  pruriens[1]
-pois ailé - Psophocarpus  tetragonolobus[1]
+pois à bouquet  - Lathyrus latifolius
+pois à crapaud - Vicia  cracca L.
+pois à écosser - Pisum  sativum
+pois à grain ridé - Pisum  sativumsubsp. sativum convar. medullare
+pois à gratter - Mucuna  pruriens
+pois ailé - Psophocarpus  tetragonolobus
 Pois ambrevade  - Cajanus cajan Spreng.
 Pois amer - Phaseolus lunatus L.
-pois aux lièvres - Lathyrus  sylvestris[1]
+pois aux lièvres - Lathyrus  sylvestris
 Pois à vache - Vigna unguiculata subsp. unguiculata
-pois à vache commun - Vigna  unguiculata[1]
-pois azuki - Vigna  angularis[1]
-pois bambara - Voandzeia  subterranea[1]
+pois à vache commun - Vigna  unguiculata
+pois azuki - Vigna  angularis
+pois bambara - Voandzeia  subterranea
 Pois bambara - Vigna subterranea Thouars
-pois bleu - Calopogonium  mucunoides[1]
-pois bleu - Clitoria ternatea[1]
-Pois boucoussou - Lablab  purpureus L.[1]
-pois café - Lotus  tetragonolobus[1]
-pois cajan - Cajanus  cajan Spreng[1].
-pois carré - Psophocarpus tetragonolobus DC.[1]
-pois carré - Lathyrus  sativus L.[1]
-pois chiche - Cicer  arietinum L.[1]
-pois cicerole - Cicer  arietinum[1]
+pois bleu - Calopogonium  mucunoides
+pois bleu - Clitoria ternatea
+Pois boucoussou - Lablab  purpureus L.
+pois café - Lotus  tetragonolobus
+pois cajan - Cajanus  cajan Spreng.
+pois carré - Psophocarpus tetragonolobus DC.
+pois carré - Lathyrus  sativus L.
+pois chiche - Cicer  arietinum L.
+pois cicerole - Cicer  arietinum
 Pois cochon - Pachyrrhizus angulatus Rich.
-pois commun - Pisum  sativum[1]
-pois cornu - Cicer  arietinum[1]
-pois cultivé - Pisum  sativum[1]
-pois d'Angole - Cajanus  cajan Spreng[1].
-pois de coucou - Lathyrus  vernus[1]
-pois de Chine - Lathyrus  sylvestris[1]
-Pois de cœur - Cardiospermum halicacabum (famille des Sapindaceae)[1]
-pois de merveille -  Cardiospermum halicacabum[1]
-pois de merveille -  Cardiospermum microcarpum[1]
-pois de pigeon - Pisum sativum  subsp. arvense[1]
-pois de pigeon - Lathyrus  vernus[1]
-pois des champs - Pisum sativum  subsp. arvense[1]
-pois de senteur - Lathyrus  odoratus L.[1]
-pois de senteur - Lathyrus  latifolius[1]
-pois de serpent - Lathyrus  aphaca[1]
+pois commun - Pisum  sativum
+pois cornu - Cicer  arietinum
+pois cultivé - Pisum  sativum
+pois d'Angole - Cajanus  cajan Spreng.
+pois de coucou - Lathyrus  vernus
+pois de Chine - Lathyrus  sylvestris
+Pois de cœur - Cardiospermum halicacabum (famille des Sapindaceae)
+pois de merveille -  Cardiospermum halicacabum
+pois de merveille -  Cardiospermum microcarpum
+pois de pigeon - Pisum sativum  subsp. arvense
+pois de pigeon - Lathyrus  vernus
+pois des champs - Pisum sativum  subsp. arvense
+pois de senteur - Lathyrus  odoratus L.
+pois de senteur - Lathyrus  latifolius
+pois de serpent - Lathyrus  aphaca
 Pois de sept ans - Phaseolus lunatus L.
 Pois de Sibérie - Caragana arborescens Fabr.
 Pois de terre - Arachis hypogaea L.
 Pois doux ou pois sucrés, espèces d'arbres du genre Inga
-pois doux - Inga  fagifolia[1]
-pois du Cap - Phaseolus  lunatus L.[1]
+pois doux - Inga  fagifolia
+pois du Cap - Phaseolus  lunatus L.
 Pois d'un sou - Lablab purpureus L.
-pois élevé - Pisum sativum  subsp. elatius[1]
-pois fourrager - Pisum sativum  subsp. arvense[1]
+pois élevé - Pisum sativum  subsp. elatius
+pois fourrager - Pisum sativum  subsp. arvense
 pois franc marron - Crotalaria retusa
-pois gras - Pisum sativum  subsp. elatius[1]
-pois gris - Pisum sativum  subsp. arvense[1]
+pois gras - Pisum sativum  subsp. elatius
+pois gris - Pisum sativum  subsp. arvense
 Pois indien - Lablab purpureus L.
 Pois-kilomètre - Vigna unguiculata subsp. sesquipedalis (L.) Walp
-pois mange-tout - Pisum sativum  subsp. sativum convar. axiphium[1]
+pois mange-tout - Pisum sativum  subsp. sativum convar. axiphium
 Pois manioc - Pachyrhizus angulatus Rich. ou Pachyrhizus erosus (L.)
-pois maritime - Lathyrus  japonicus subsp. maritimus[1]
+pois maritime - Lathyrus  japonicus subsp. maritimus
 Pois mascate - Mucuna utile Wall.
-pois patate - Pachyrhizus  erosus[1]
+pois patate - Pachyrhizus  erosus
 Pois patate -  Pachyrhizus tuberosus
-pois pigeon - Cajanus  cajan[1]
+pois pigeon - Cajanus  cajan
 Pois pigeon - Cajanus indicus Spreng.
-pois potager - Pisum  sativum[1]
-pois pouillieux - Mucuna  pruriens[1]
-pois protéagineux - Pisum  sativum[2]
-pois puant - Anagyris  foetida[1]
+pois potager - Pisum  sativum
+pois pouillieux - Mucuna  pruriens
+pois protéagineux - Pisum  sativum
+pois puant - Anagyris  foetida
 Pois quénique - Moringa oleifera Lam. (famille des Moringaceae)
-pois rond marron - Crotalaria  retusa[1]
+pois rond marron - Crotalaria  retusa
 Pois rouge - Abrus precatorius L.
 Pois sabre - Canavalia ensiformis DC
-pois sabre rouge - Canavalia  gladiata[1]
-pois sans parchemin - Pisum  sativum subsp. sativum convar. axiphium[1]
-pois souterrain - Voandzeia  subterranea[1]
+pois sabre rouge - Canavalia  gladiata
+pois sans parchemin - Pisum  sativum subsp. sativum convar. axiphium
+pois souterrain - Voandzeia  subterranea
 Pois sucré - Cyperus esculentus (famille des Cyperaceae)
-pois tubéreux - Pachyrhizus  tuberosus[1]
-pois velu - Mucuna  pruriens[1]
-pois vivace - Lathyrus  sylvestris[1]
-pois vivace - Lathyrus  latifolius[1]
-pois zombi - Crotalaria  retusa[1]
+pois tubéreux - Pachyrhizus  tuberosus
+pois velu - Mucuna  pruriens
+pois vivace - Lathyrus  sylvestris
+pois vivace - Lathyrus  latifolius
+pois zombi - Crotalaria  retusa
 Voir aussi :
 lotier-pois, Lotus maritimus L.
 Les « pois sauteurs » sont des graines d'une Euphorbiacée du Mexique du genre Sebastiania  (Sebastiania pavoniana ou Sebastiania palmeri) dans lesquelles un papillon a pondu ses œufs. Ce sont les soubresauts de la larve cachée à l'intérieur qui font sauter la graine.
@@ -629,7 +643,9 @@
           <t>Les pois dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le motif dit « à pois » est un dessin régulier fait de petits cercles, de taille identique et disposés à distance égales, qui rappellent la forme et la taille d'un petit pois.
 L'histoire de La Princesse au petit pois ou La princesse sur le pois est un conte bien connu des enfants écrit par le danois Hans Christian Andersen et publié en 1835.
